--- a/13/2/2/2/FpE por tipo de activo 2007 a 2021 - Trimestral.xlsx
+++ b/13/2/2/2/FpE por tipo de activo 2007 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Serie</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1610,6 +1613,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>202</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>152</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
